--- a/code/data/trade balance.xlsx
+++ b/code/data/trade balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Github\GitHub\Advanced-Time-Series-Analysis-Article-Replication\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7EFF0C-5A8A-4077-9202-36CED07D3769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F56D9-3A0A-4C9C-B948-2C5CC925EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,8 +635,12 @@
       <c r="F2" s="2">
         <v>0.11074347000661365</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1">
+        <v>1.3692063491878286E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.8412708182877757E-2</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -683,8 +687,12 @@
       <c r="F3" s="2">
         <v>6.4501649348724082E-3</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>4.308324331204841E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.4995210458394029E-3</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -731,8 +739,12 @@
       <c r="F4" s="2">
         <v>4.1271257579685644E-3</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1">
+        <v>1.976924958845481E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.1619299784110977E-3</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -779,8 +791,12 @@
       <c r="F5" s="2">
         <v>8.4673661972791067E-3</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1">
+        <v>3.9771966452856146E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9.2630940159217703E-3</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -827,8 +843,12 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>5.5595606294933271E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.8608062076568883E-2</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -878,7 +898,9 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>1.9577022433118794E-2</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -925,7 +947,9 @@
       <c r="F8" s="1">
         <v>2.7745953263503077E-2</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>2.2183296827899711E-3</v>
+      </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
@@ -975,8 +999,12 @@
       <c r="F9" s="1">
         <v>0.1167756468775026</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>5.0404356826799453E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.146760205514747</v>
+      </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
@@ -1025,8 +1053,12 @@
       <c r="F10" s="1">
         <v>4.3291734453536094E-3</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>1.6913107502923154E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.4608938159211376E-3</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
         <v>0</v>
@@ -1075,8 +1107,12 @@
       <c r="F11" s="1">
         <v>3.1083754212527626E-2</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>1.0782525397039697E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.2028659801896335E-2</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1">
@@ -1125,8 +1161,12 @@
       <c r="F12" s="1">
         <v>7.443826884837447E-2</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>1.903889017852782E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.1999466319479518E-2</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1175,8 +1215,12 @@
       <c r="F13" s="1">
         <v>1.5521850825187958E-2</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>4.4685195258601122E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.3166665929954888E-2</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1225,8 +1269,12 @@
       <c r="F14" s="1">
         <v>7.7852476681984344E-3</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <v>2.8052913600327329E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.8277764365049422E-3</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1275,8 +1323,12 @@
       <c r="F15" s="1">
         <v>4.0604041969260998E-2</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>9.3185386423126522E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3.3638334016656328E-2</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1325,8 +1377,12 @@
       <c r="F16" s="1">
         <v>5.3209511514685885E-2</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>3.610110338906148E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.10218520323376894</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1375,8 +1431,12 @@
       <c r="F17" s="1">
         <v>2.7612074630736106E-2</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>1.1864402104013429E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.0965214515899852E-2</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1425,8 +1485,12 @@
       <c r="F18" s="1">
         <v>8.8869361242340725E-3</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>3.8582892097878685E-3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4.258467472522235E-3</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1475,8 +1539,12 @@
       <c r="F19" s="1">
         <v>2.7259918008150728E-2</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1">
+        <v>2.6318240770361975E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.442203013679155E-2</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1525,8 +1593,12 @@
       <c r="F20" s="1">
         <v>4.5223300777215168E-2</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1">
+        <v>6.2994532718689275E-3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.5402891772702517E-2</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1575,8 +1647,12 @@
       <c r="F21" s="1">
         <v>6.7006619356575498E-4</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1">
+        <v>1.1133878815264115E-3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.4416019419556114E-3</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1625,8 +1701,12 @@
       <c r="F22" s="1">
         <v>4.6736826125447408E-3</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1">
+        <v>6.7346391872101976E-3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.0102818388245359E-3</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1675,8 +1755,12 @@
       <c r="F23" s="1">
         <v>9.2739670718785562E-3</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1">
+        <v>2.2818142329625525E-3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.4399845245343967E-2</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1725,8 +1809,12 @@
       <c r="F24" s="1">
         <v>3.1224961076641586E-3</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1">
+        <v>1.9165744914559891E-3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.3215991626261566E-3</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1775,8 +1863,12 @@
       <c r="F25" s="1">
         <v>1.9519941393771775E-2</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1">
+        <v>3.0565296254589265E-3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2.1129762353883116E-3</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1825,8 +1917,12 @@
       <c r="F26" s="1">
         <v>9.2972626076749214E-3</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1">
+        <v>2.753525593717999E-3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2.5340394344447285E-3</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1875,8 +1971,12 @@
       <c r="F27" s="1">
         <v>7.4527762181633367E-3</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="1">
+        <v>1.383892948543576E-3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.3237048534007899E-3</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1925,8 +2025,12 @@
       <c r="F28" s="1">
         <v>2.2817728831469132E-2</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1">
+        <v>3.1704982610042567E-3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2.7100514716600528E-2</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1975,8 +2079,12 @@
       <c r="F29" s="1">
         <v>9.1253020917953804E-3</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G29" s="1">
+        <v>3.1597042241112466E-3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8.7208044984381488E-3</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2025,8 +2133,12 @@
       <c r="F30" s="1">
         <v>1.4204065697058654E-2</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1">
+        <v>4.6269941909028167E-3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6.9768499414119981E-3</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2075,8 +2187,12 @@
       <c r="F31" s="1">
         <v>8.7095143334020731E-3</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="G31" s="1">
+        <v>3.5952886843627946E-3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6.4010524310865093E-3</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2125,8 +2241,12 @@
       <c r="F32" s="1">
         <v>4.8931218014147048E-3</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="G32" s="1">
+        <v>1.653873720662527E-3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.9542577097694412E-3</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2175,8 +2295,12 @@
       <c r="F33" s="1">
         <v>2.7167574209157386E-2</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="G33" s="1">
+        <v>2.5105076174573002E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.7240802090799088E-2</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2225,8 +2349,12 @@
       <c r="F34" s="1">
         <v>0.23002085221016386</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="G34" s="1">
+        <v>0.73708773676074224</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.2018235232003272</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>

--- a/code/data/trade balance.xlsx
+++ b/code/data/trade balance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\Github\GitHub\Advanced-Time-Series-Analysis-Article-Replication\code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evehanoune/Documents/GitHub/Advanced-Time-Series-Analysis-Article-Replication/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F56D9-3A0A-4C9C-B948-2C5CC925EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A15DB-9A35-0F47-8058-AFEEFBFB3241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19000" yWindow="720" windowWidth="10400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,10 +188,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -468,51 +477,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -616,7 +625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,10 +650,18 @@
       <c r="H2" s="1">
         <v>6.8412708182877757E-2</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="1">
+        <v>5.0914228405093314E-3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2.1143920136289097E-3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.4738461221733704E-3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.5750486352786183E-3</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -668,7 +685,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -693,10 +710,18 @@
       <c r="H3" s="1">
         <v>6.4995210458394029E-3</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="1">
+        <v>3.4231737962102035E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.0370764092744065E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5.0142388895112813E-3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6.1996504824132249E-3</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -720,7 +745,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,10 +770,18 @@
       <c r="H4" s="1">
         <v>2.1619299784110977E-3</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="1">
+        <v>3.142239293227646E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1.3994757321093588E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.2316668694064286E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6.4934047768900716E-2</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -772,7 +805,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,10 +830,18 @@
       <c r="H5" s="1">
         <v>9.2630940159217703E-3</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="1">
+        <v>8.5165675903565875E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2.941862772890616E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.1134444365878799E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.2241745966127247E-2</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -824,7 +865,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,10 +890,18 @@
       <c r="H6" s="1">
         <v>7.8608062076568883E-2</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="I6" s="1">
+        <v>2.0081374978544293E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>8.9022919609157633E-3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.7569019926032575E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.0135115880097993E-2</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -876,7 +925,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -901,10 +950,18 @@
       <c r="H7" s="1">
         <v>1.9577022433118794E-2</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="I7" s="1">
+        <v>2.066867060262392E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.0614074538856915E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>8.2697258077273853E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>8.2140092054903517E-3</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -928,7 +985,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,10 +1010,18 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="I8" s="1">
+        <v>8.5735235038642433E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.0153850368789901E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.5674465307600164E-3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.0836145035057563E-3</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -980,7 +1045,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,9 +1073,15 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="3">
+        <v>4.4628768556090451E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.5820784962397795E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5.6485123303023466E-2</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1034,7 +1105,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,12 +1130,18 @@
       <c r="H10" s="1">
         <v>5.4608938159211376E-3</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>5.0274550936016769E-3</v>
+      </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="1">
+        <v>6.2736338761060937E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.2168652187446215E-2</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1088,7 +1165,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,12 +1190,18 @@
       <c r="H11" s="1">
         <v>3.2028659801896335E-2</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1">
+        <v>2.2796458172788345E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5.3530041695526762E-2</v>
+      </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1">
+        <v>0.12835065993457387</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1142,7 +1225,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1167,9 +1250,15 @@
       <c r="H12" s="1">
         <v>4.1999466319479518E-2</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1">
+        <v>6.7154524572498348E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.19044526380519261</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.22319967086331205</v>
+      </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
@@ -1196,7 +1285,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1221,10 +1310,18 @@
       <c r="H13" s="1">
         <v>1.3166665929954888E-2</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="I13" s="1">
+        <v>1.8535393514563007E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7.0360198243600769E-3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7.1750257475598159E-3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.2423458468434459E-3</v>
+      </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
@@ -1250,7 +1347,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1275,10 +1372,18 @@
       <c r="H14" s="1">
         <v>4.8277764365049422E-3</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="I14" s="1">
+        <v>2.0851263737827058E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.308538151171647E-3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3.482787659126409E-3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4.3501939692971083E-3</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
         <v>0</v>
@@ -1304,7 +1409,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1329,10 +1434,18 @@
       <c r="H15" s="1">
         <v>3.3638334016656328E-2</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="I15" s="1">
+        <v>2.2219201700112726E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4.2441357669406259E-2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.1116842625177881</v>
+      </c>
+      <c r="L15" s="1">
+        <v>8.7437308673546307E-2</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1">
@@ -1358,7 +1471,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1383,10 +1496,18 @@
       <c r="H16" s="1">
         <v>0.10218520323376894</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="I16" s="1">
+        <v>0.20146038110680767</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3.0313565346953241E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.3226854518114296E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3.3330094695364056E-2</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1412,7 +1533,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1437,10 +1558,18 @@
       <c r="H17" s="1">
         <v>5.0965214515899852E-2</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="I17" s="1">
+        <v>9.8790181211522554E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.1861859030167142E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>8.4932057383396292E-3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1.3396919374074293E-2</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1466,7 +1595,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,10 +1620,18 @@
       <c r="H18" s="1">
         <v>4.258467472522235E-3</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="I18" s="1">
+        <v>2.962263087190517E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4.6866077844390326E-3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>4.6771224872583991E-3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6.4391186063058143E-3</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1520,7 +1657,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,10 +1682,18 @@
       <c r="H19" s="1">
         <v>3.442203013679155E-2</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="1">
+        <v>9.6442525863574147E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>3.3992827019945133E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4.4156723088885613E-3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>7.5111928827956568E-3</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1574,7 +1719,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,10 +1744,18 @@
       <c r="H20" s="1">
         <v>2.5402891772702517E-2</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="I20" s="1">
+        <v>2.6086005982912896E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8.1017992808598102E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7.0391353455525954E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.11892016774352582</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1628,7 +1781,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1653,10 +1806,18 @@
       <c r="H21" s="1">
         <v>1.4416019419556114E-3</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="I21" s="1">
+        <v>3.6697981569663116E-3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.1642781857697855E-3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9.1661548985714808E-4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.09961268689446E-3</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1682,7 +1843,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1707,10 +1868,18 @@
       <c r="H22" s="1">
         <v>2.0102818388245359E-3</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="I22" s="1">
+        <v>2.8513600593271515E-3</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.966928474141368E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>9.8655852105534892E-3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.6575607511452501E-2</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1736,7 +1905,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1761,10 +1930,18 @@
       <c r="H23" s="1">
         <v>2.4399845245343967E-2</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="I23" s="1">
+        <v>4.1173067172931227E-3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.0394039917982216E-3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>5.4714862510674405E-4</v>
+      </c>
+      <c r="L23" s="1">
+        <v>8.9115877906587883E-4</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1790,7 +1967,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1815,10 +1992,18 @@
       <c r="H24" s="1">
         <v>2.3215991626261566E-3</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="I24" s="1">
+        <v>1.3171944335106898E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2.7763623181019017E-3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.8087287222843156E-3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2.7127698987021889E-3</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1844,7 +2029,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1869,10 +2054,18 @@
       <c r="H25" s="1">
         <v>2.1129762353883116E-3</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="I25" s="1">
+        <v>1.5739386665694851E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4.6425190320727753E-3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.0227314458200231E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5.065673656777285E-3</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1898,7 +2091,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1923,10 +2116,18 @@
       <c r="H26" s="1">
         <v>2.5340394344447285E-3</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="I26" s="1">
+        <v>3.2967069541159792E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4.9799170662264683E-3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>9.6688667947101119E-3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>7.2167833605423105E-3</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -1952,7 +2153,7 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1977,10 +2178,18 @@
       <c r="H27" s="1">
         <v>3.3237048534007899E-3</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="I27" s="1">
+        <v>1.0146881896896715E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5.3495358133047229E-3</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3.7190028490665275E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>8.4268761289940722E-3</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2006,7 +2215,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2031,10 +2240,18 @@
       <c r="H28" s="1">
         <v>2.7100514716600528E-2</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="I28" s="1">
+        <v>1.0363583928074811E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2.5404344870972179E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>9.3882179649869765E-2</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4.5476476742000116E-2</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2060,7 +2277,7 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2085,10 +2302,18 @@
       <c r="H29" s="1">
         <v>8.7208044984381488E-3</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="I29" s="1">
+        <v>6.9643297862508275E-3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.16692250001090836</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.6335463178790987E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2.611432614917986E-2</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -2114,7 +2339,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2139,10 +2364,18 @@
       <c r="H30" s="1">
         <v>6.9768499414119981E-3</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="I30" s="1">
+        <v>9.0147017228269788E-3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.6247345237014831E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3.8449622576879686E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>5.6878103035371726E-2</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -2168,7 +2401,7 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2193,10 +2426,18 @@
       <c r="H31" s="1">
         <v>6.4010524310865093E-3</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="I31" s="1">
+        <v>2.2471775995026921E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5.1937655836728188E-3</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4.512740844913328E-3</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5.2241848665619036E-3</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2222,7 +2463,7 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2247,10 +2488,18 @@
       <c r="H32" s="1">
         <v>3.9542577097694412E-3</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="I32" s="1">
+        <v>5.4922621721266796E-3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>9.4702504494388589E-3</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.2433326473017807E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1.8186360762178784E-2</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2276,7 +2525,7 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2301,10 +2550,18 @@
       <c r="H33" s="1">
         <v>2.7240802090799088E-2</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="I33" s="1">
+        <v>2.7126930977158681E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>8.6172157873219205E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9.4044737623426716E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>8.7488634479862243E-2</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -2330,7 +2587,7 @@
       </c>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2355,10 +2612,18 @@
       <c r="H34" s="1">
         <v>0.2018235232003272</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="I34" s="1">
+        <v>0.2134093827239654</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.6868744759161972E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>8.421502096618777E-2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>9.5628422283806733E-2</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2384,6 +2649,10 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="I35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
     <sortCondition ref="A2:A34"/>

--- a/code/data/trade balance.xlsx
+++ b/code/data/trade balance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evehanoune/Documents/GitHub/Advanced-Time-Series-Analysis-Article-Replication/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1A15DB-9A35-0F47-8058-AFEEFBFB3241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A58B64-31B1-D248-9891-85AAC211FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="720" windowWidth="10400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L34"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -497,10 +497,10 @@
     <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -662,10 +662,18 @@
       <c r="L2" s="1">
         <v>2.5750486352786183E-3</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="M2" s="1">
+        <v>5.1493927254259268E-3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3.9860255821251135E-3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4.7135546146621441E-3</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1.6976913392829176E-3</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -722,10 +730,18 @@
       <c r="L3" s="1">
         <v>6.1996504824132249E-3</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="M3" s="1">
+        <v>3.390898380341871E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.8520128747499632E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7.8925792629667372E-3</v>
+      </c>
+      <c r="P3" s="3">
+        <v>4.5178823361334837E-2</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -782,10 +798,18 @@
       <c r="L4" s="1">
         <v>6.4934047768900716E-2</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="M4" s="1">
+        <v>3.4593657491198272E-3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.1717386230496209E-3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3.2369408470242944E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3.0687072109055946E-3</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -842,10 +866,18 @@
       <c r="L5" s="1">
         <v>5.2241745966127247E-2</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="M5" s="1">
+        <v>3.841519560575711E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6.5377845507942779E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3.5701690009687551E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <v>7.2467131597673089E-3</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -902,10 +934,18 @@
       <c r="L6" s="1">
         <v>1.0135115880097993E-2</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="M6" s="1">
+        <v>1.3281734515631706E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>8.8791513707103201E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.2846238919186478E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1.0261089090752469E-2</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -962,10 +1002,18 @@
       <c r="L7" s="1">
         <v>8.2140092054903517E-3</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="M7" s="1">
+        <v>1.4640240919749066E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.0576458169102325E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>9.5589787590135509E-3</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2.2230048453871977E-2</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1022,10 +1070,18 @@
       <c r="L8" s="1">
         <v>2.0836145035057563E-3</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="M8" s="1">
+        <v>4.5022223677771821E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.1766988058517594E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.7589885952033801E-3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>6.9733785252713157E-3</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1082,10 +1138,18 @@
       <c r="L9" s="1">
         <v>5.6485123303023466E-2</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="M9" s="1">
+        <v>9.8740315150949956E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.10966662428817919</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4.4194430540683116E-2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.1897091255713361</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1142,10 +1206,18 @@
       <c r="L10" s="1">
         <v>1.2168652187446215E-2</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="M10" s="1">
+        <v>4.0665884435193735E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.0972625216853732E-3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>6.7331863079526065E-3</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2.876617983657737E-3</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1202,10 +1274,18 @@
       <c r="L11" s="1">
         <v>0.12835065993457387</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="M11" s="1">
+        <v>2.8410548639689087E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.3821033444224872E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.15532830466346229</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1.8857635803849943E-2</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1262,10 +1342,18 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="M12" s="1">
+        <v>6.8516318173973884E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>3.5270085941020761E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.21974313213361785</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4.5626662694419937E-2</v>
+      </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1325,9 +1413,15 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="1">
+        <v>3.4553734092724012E-2</v>
+      </c>
+      <c r="O13" s="1">
+        <v>9.9940344690444011E-3</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1.0150154450147279E-2</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1384,12 +1478,18 @@
       <c r="L14" s="1">
         <v>4.3501939692971083E-3</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <v>3.0536410778995073E-2</v>
+      </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="O14" s="1">
+        <v>4.7335125391270005E-3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3.5615900297080852E-2</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1446,12 +1546,18 @@
       <c r="L15" s="1">
         <v>8.7437308673546307E-2</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="M15" s="1">
+        <v>3.0705522205023969E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.5328681126070054E-2</v>
+      </c>
       <c r="O15" s="1">
         <v>0</v>
       </c>
-      <c r="P15" s="1"/>
+      <c r="P15" s="3">
+        <v>1.457691987223483E-2</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1508,9 +1614,15 @@
       <c r="L16" s="1">
         <v>3.3330094695364056E-2</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="M16" s="1">
+        <v>5.9517441952747399E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.2047666001905783</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2.2209832334660694E-2</v>
+      </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
@@ -1570,10 +1682,18 @@
       <c r="L17" s="1">
         <v>1.3396919374074293E-2</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="M17" s="1">
+        <v>3.4552663501526221E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <v>7.1817732854666125E-2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1.1088687798127224E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>7.3839285560431844E-2</v>
+      </c>
       <c r="Q17" s="1">
         <v>0</v>
       </c>
@@ -1632,10 +1752,18 @@
       <c r="L18" s="1">
         <v>6.4391186063058143E-3</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="M18" s="1">
+        <v>3.0706751499935327E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4.8367695739188733E-2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3.7083031938807496E-3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3.5393166610818878E-2</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1">
         <v>0</v>
@@ -1694,10 +1822,18 @@
       <c r="L19" s="1">
         <v>7.5111928827956568E-3</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="M19" s="1">
+        <v>7.3629122229401621E-3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3.3335346813152238E-3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>5.9528716521035007E-3</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.1487790999006013E-2</v>
+      </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
@@ -1756,10 +1892,18 @@
       <c r="L20" s="1">
         <v>0.11892016774352582</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="M20" s="1">
+        <v>2.4295719670446567E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.2651487048736985E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>5.6515614653167436E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.8421741491593435E-2</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1818,10 +1962,18 @@
       <c r="L21" s="1">
         <v>1.09961268689446E-3</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="M21" s="1">
+        <v>2.5447071179583013E-3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4.1359805025356329E-3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.2901374708419642E-3</v>
+      </c>
+      <c r="P21" s="1">
+        <v>5.2477884109981459E-3</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -1880,10 +2032,18 @@
       <c r="L22" s="1">
         <v>1.6575607511452501E-2</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="M22" s="1">
+        <v>2.9794257520198968E-3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.1415268065363747E-3</v>
+      </c>
+      <c r="O22" s="1">
+        <v>6.1180229759324224E-3</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3.242185805356811E-3</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1942,10 +2102,18 @@
       <c r="L23" s="1">
         <v>8.9115877906587883E-4</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="M23" s="1">
+        <v>1.8588323880018105E-3</v>
+      </c>
+      <c r="N23" s="1">
+        <v>6.2618430788099946E-4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.498173148126376E-3</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1.8356950376555736E-3</v>
+      </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -2004,10 +2172,18 @@
       <c r="L24" s="1">
         <v>2.7127698987021889E-3</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="M24" s="1">
+        <v>4.1823253149267017E-3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.3943006264695287E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.2341769526207952E-3</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.8852725803965163E-2</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -2066,10 +2242,18 @@
       <c r="L25" s="1">
         <v>5.065673656777285E-3</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="M25" s="1">
+        <v>6.1719326402003429E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2.1880668101827479E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1.2845797921858877E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3.2447372404751887E-2</v>
+      </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -2128,10 +2312,18 @@
       <c r="L26" s="1">
         <v>7.2167833605423105E-3</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="M26" s="1">
+        <v>4.5152104434555654E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.11829516243082591</v>
+      </c>
+      <c r="O26" s="1">
+        <v>4.694055336880474E-3</v>
+      </c>
+      <c r="P26" s="1">
+        <v>3.2732048255144468E-2</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -2190,10 +2382,18 @@
       <c r="L27" s="1">
         <v>8.4268761289940722E-3</v>
       </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="M27" s="1">
+        <v>2.2314501938355855E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>4.0741242490367749E-3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>8.1143512760130307E-3</v>
+      </c>
+      <c r="P27" s="1">
+        <v>8.3297204500756995E-3</v>
+      </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
@@ -2252,10 +2452,18 @@
       <c r="L28" s="1">
         <v>4.5476476742000116E-2</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="M28" s="1">
+        <v>1.2490329605378284E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.0951454588549811E-2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>6.9721826414226182E-2</v>
+      </c>
+      <c r="P28" s="1">
+        <v>6.5453784439478864E-3</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -2314,10 +2522,18 @@
       <c r="L29" s="1">
         <v>2.611432614917986E-2</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="M29" s="1">
+        <v>7.9400230865947705E-3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>4.8063431319197228E-3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.4917857257730181E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4.9630065773400948E-3</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -2376,10 +2592,18 @@
       <c r="L30" s="1">
         <v>5.6878103035371726E-2</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="M30" s="1">
+        <v>4.547527562165074E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>4.671865236906771E-3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>5.2833714626502472E-2</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1.014088973278897E-2</v>
+      </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -2438,10 +2662,18 @@
       <c r="L31" s="1">
         <v>5.2241848665619036E-3</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="M31" s="1">
+        <v>1.6563436240212729E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3.7931939909001913E-2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>4.5150088737220036E-3</v>
+      </c>
+      <c r="P31" s="1">
+        <v>4.3206797239161411E-2</v>
+      </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2500,10 +2732,18 @@
       <c r="L32" s="1">
         <v>1.8186360762178784E-2</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="M32" s="1">
+        <v>8.8540627509558715E-3</v>
+      </c>
+      <c r="N32" s="1">
+        <v>4.6720357504034474E-3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2.1949667960412807E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <v>2.5816626073592681E-3</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2562,10 +2802,18 @@
       <c r="L33" s="1">
         <v>8.7488634479862243E-2</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="M33" s="1">
+        <v>6.1217699476021091E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.8420230467517985E-2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>7.0796219018350259E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2.601710750067111E-2</v>
+      </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2624,10 +2872,18 @@
       <c r="L34" s="1">
         <v>9.5628422283806733E-2</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="M34" s="1">
+        <v>0.17593962194473833</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.1189270204748393</v>
+      </c>
+      <c r="O34" s="1">
+        <v>8.2427641849992531E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.25064616925502026</v>
+      </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2652,6 +2908,9 @@
     <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="I35" s="1"/>
       <c r="K35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">

--- a/code/data/trade balance.xlsx
+++ b/code/data/trade balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evehanoune/Documents/GitHub/Advanced-Time-Series-Analysis-Article-Replication/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A58B64-31B1-D248-9891-85AAC211FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD88196-50AA-244B-8D47-9C08EF3D1BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
     <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" bestFit="1" customWidth="1"/>
@@ -674,16 +674,36 @@
       <c r="P2" s="3">
         <v>1.6976913392829176E-3</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="Q2" s="3">
+        <v>2.5702589761798364E-3</v>
+      </c>
+      <c r="R2" s="3">
+        <v>2.9251711854575476E-3</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3.8341141619627293E-3</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3.1315996696598663E-3</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.876850293305785E-3</v>
+      </c>
+      <c r="V2" s="1">
+        <v>7.7154905509155291E-4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2.8111848581985052E-2</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2.5496094584321516E-3</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1.4364620438840534E-3</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>6.8737944243158812E-4</v>
+      </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -742,16 +762,36 @@
       <c r="P3" s="3">
         <v>4.5178823361334837E-2</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="Q3" s="3">
+        <v>3.6053073863216933E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3.1376073997775103E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.9373614901313655E-3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4.4611637099653259E-3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.22747266000724323</v>
+      </c>
+      <c r="V3" s="1">
+        <v>2.5799167654198311E-3</v>
+      </c>
+      <c r="W3" s="1">
+        <v>4.416976732897494E-3</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1.7799254955553599E-2</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>8.2089859515029982E-3</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2.9659147186796079E-2</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -810,16 +850,36 @@
       <c r="P4" s="3">
         <v>3.0687072109055946E-3</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="Q4" s="3">
+        <v>2.9494725089097185E-3</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1.8083294887481917E-3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.3290179757123018E-3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1.291190764159742E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2.685722995665875E-3</v>
+      </c>
+      <c r="V4" s="1">
+        <v>6.8257686861722027E-3</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.8183102632044494E-3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.4282270871247185E-3</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2.5658127394792662E-3</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.1717677521387469E-3</v>
+      </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -878,16 +938,36 @@
       <c r="P5" s="3">
         <v>7.2467131597673089E-3</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="Q5" s="3">
+        <v>4.7303749693315914E-3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>4.5579722385307841E-3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2.214526855471259E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>9.4990737908309739E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>9.1640828421202924E-3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.6673566370712967E-2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>5.2267045028385022E-3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>5.6188581728915743E-3</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1.4776686391320532E-2</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>6.6271994604233534E-3</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -946,16 +1026,36 @@
       <c r="P6" s="3">
         <v>1.0261089090752469E-2</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Q6" s="3">
+        <v>1.3242205144661311E-2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>5.7904584731095039E-3</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1.1953176555689619E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1.0800921056626386E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3.2990750566042107E-3</v>
+      </c>
+      <c r="V6" s="1">
+        <v>8.0484739190165768E-3</v>
+      </c>
+      <c r="W6" s="1">
+        <v>5.5572126207663622E-2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4.9874494782912466E-3</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.6626343795067177E-2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4.474326471536871E-3</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
@@ -1014,16 +1114,36 @@
       <c r="P7" s="3">
         <v>2.2230048453871977E-2</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="Q7" s="3">
+        <v>1.6386471913342474E-2</v>
+      </c>
+      <c r="R7" s="3">
+        <v>6.5088254459110895E-3</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2.5544749896745819E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>6.2780057705440198E-3</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.7043571060874327E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3.0402009658767166E-2</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3.800395823917592E-2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>9.7156802014722096E-3</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1.4188205061022158E-2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>5.1998957952845305E-3</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -1082,16 +1202,36 @@
       <c r="P8" s="3">
         <v>6.9733785252713157E-3</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="Q8" s="3">
+        <v>7.9622082319640783E-3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1.279696222215374E-3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4.9739602328465506E-3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2.7058592529105624E-3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>2.0913911373819424E-3</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1.2715979904220269E-3</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5.2331715538428955E-2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.3094612104135183E-3</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6.1644167288974893E-4</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>7.1994815321391886E-4</v>
+      </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -1150,16 +1290,36 @@
       <c r="P9" s="3">
         <v>0.1897091255713361</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="Q9" s="3">
+        <v>0.2033123959833778</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.10736677934436017</v>
+      </c>
+      <c r="S9" s="1">
+        <v>5.1053334715829048E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5.3709114356614823E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.11982866322034851</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3.700696768820988E-2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.13525201992150043</v>
+      </c>
+      <c r="X9" s="1">
+        <v>9.2407749327279493E-2</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.12216527547010975</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.10594948146025356</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -1218,16 +1378,36 @@
       <c r="P10" s="3">
         <v>2.876617983657737E-3</v>
       </c>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="Q10" s="3">
+        <v>3.3048490692200263E-3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2.0516583988921615E-3</v>
+      </c>
+      <c r="S10" s="1">
+        <v>8.3536126261921312E-4</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1.1461662962131178E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>3.0206905671792315E-3</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2.7933161346947136E-2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.3549948744764019E-3</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2.6979932395815383E-3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>2.2251131765792243E-3</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2.0312294701645152E-3</v>
+      </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1286,16 +1466,36 @@
       <c r="P11" s="3">
         <v>1.8857635803849943E-2</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="Q11" s="3">
+        <v>1.4487336027076607E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1.5920771793718556E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8.5705239793426816E-3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>9.5125886534164997E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.8663507057023663E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>7.7391289942017383E-2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1.3436854413175922E-2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1.3940949043450552E-2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2.9416564878380649E-2</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>2.4582018055768082E-2</v>
+      </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -1354,16 +1554,36 @@
       <c r="P12" s="3">
         <v>4.5626662694419937E-2</v>
       </c>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="Q12" s="3">
+        <v>4.3239782943548966E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3.8693686557407576E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2.6601878064142125E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.27860649641390817</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4.0112107473974618E-2</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.15559978280945796</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4.4541874874782166E-2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4.1931102575939419E-2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>3.0698933127060023E-2</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>3.5838591769152356E-2</v>
+      </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -1422,16 +1642,36 @@
       <c r="P13" s="3">
         <v>1.0150154450147279E-2</v>
       </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="Q13" s="3">
+        <v>1.748001952250525E-2</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2.5645140150676801E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4.5837183610535617E-3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5.7300549310885804E-3</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1.0240651880380966E-2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3.5343224690471508E-3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1.2156316627837621E-2</v>
+      </c>
+      <c r="X13" s="1">
+        <v>9.5987682538303323E-3</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>8.4700615278461303E-2</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>2.703413688021758E-2</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -1490,16 +1730,36 @@
       <c r="P14" s="3">
         <v>3.5615900297080852E-2</v>
       </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="Q14" s="3">
+        <v>3.032536823398788E-2</v>
+      </c>
+      <c r="R14" s="3">
+        <v>3.5656530106124677E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.8351393891364639E-3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>5.2427818714007668E-3</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1.7980171573040524E-2</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1.5842518537862202E-3</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3.6194240620468581E-3</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2.5644674287955853E-2</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1.4008505564726091E-2</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>5.6010399990184229E-2</v>
+      </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -1558,16 +1818,36 @@
       <c r="P15" s="3">
         <v>1.457691987223483E-2</v>
       </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="Q15" s="3">
+        <v>1.4558170034696482E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <v>9.2026858064300551E-3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>8.860409214806941E-3</v>
+      </c>
+      <c r="T15" s="1">
+        <v>5.0142874527740876E-2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1.9847339148829496E-2</v>
+      </c>
+      <c r="V15" s="1">
+        <v>3.267001914103939E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <v>2.9245438242878913E-2</v>
+      </c>
+      <c r="X15" s="1">
+        <v>6.5499081410842833E-3</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>3.2246168455141541E-2</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>9.8374811859880881E-3</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
@@ -1626,16 +1906,36 @@
       <c r="P16" s="1">
         <v>0</v>
       </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="Q16" s="3">
+        <v>0.16776046539280934</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.15824610654631727</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3.0613621475969216E-2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2.5084015951290114E-2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.12101928555857012</v>
+      </c>
+      <c r="V16" s="1">
+        <v>2.6133107493341155E-2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>5.9772898374256596E-2</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.19748720102197817</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.15608464117309986</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0.11370890916449587</v>
+      </c>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -1697,15 +1997,33 @@
       <c r="Q17" s="1">
         <v>0</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="R17" s="3">
+        <v>4.6736236789362971E-2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.6934056001774833E-2</v>
+      </c>
+      <c r="T17" s="1">
+        <v>8.9780468851819156E-3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3.8895062070771119E-2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1.1465514447835931E-2</v>
+      </c>
+      <c r="W17" s="1">
+        <v>3.36083999244986E-2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>6.3534981483368197E-2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>9.6421802475790866E-2</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>5.1755376262563088E-2</v>
+      </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -1764,18 +2082,36 @@
       <c r="P18" s="1">
         <v>3.5393166610818878E-2</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1">
+        <v>2.6154087566514595E-2</v>
+      </c>
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="S18" s="1">
+        <v>7.3426197111912941E-3</v>
+      </c>
+      <c r="T18" s="1">
+        <v>8.7950244753809449E-3</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2.7419513362565109E-2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2.7882076599622533E-3</v>
+      </c>
+      <c r="W18" s="1">
+        <v>4.042803982389675E-3</v>
+      </c>
+      <c r="X18" s="1">
+        <v>4.1996604744634278E-2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>9.5520180266258272E-3</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0.17703270399711685</v>
+      </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
@@ -1834,18 +2170,36 @@
       <c r="P19" s="1">
         <v>1.1487790999006013E-2</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="Q19" s="1">
+        <v>1.3157589111069401E-2</v>
+      </c>
+      <c r="R19" s="3">
+        <v>4.782436106991624E-3</v>
+      </c>
       <c r="S19" s="1">
         <v>0</v>
       </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="T19" s="1">
+        <v>4.0695978661117764E-3</v>
+      </c>
+      <c r="U19" s="1">
+        <v>8.1336440393879675E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.4796725121958038E-3</v>
+      </c>
+      <c r="W19" s="1">
+        <v>3.1340959755059294E-2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3.1678947853119714E-3</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1.6845327197755912E-3</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>4.7700413854310803E-3</v>
+      </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
@@ -1904,18 +2258,36 @@
       <c r="P20" s="1">
         <v>1.8421741491593435E-2</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="Q20" s="1">
+        <v>1.3496374040475807E-2</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2.5175281431956506E-2</v>
+      </c>
+      <c r="S20" s="3">
+        <v>5.3497171133111247E-3</v>
+      </c>
       <c r="T20" s="1">
         <v>0</v>
       </c>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="U20" s="1">
+        <v>1.174895363190874E-2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>9.5855929215926061E-2</v>
+      </c>
+      <c r="W20" s="1">
+        <v>2.0427791301382444E-2</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3.7998514732563736E-2</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2.4564432220430345E-2</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2.290349098851889E-2</v>
+      </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
@@ -1974,18 +2346,36 @@
       <c r="P21" s="1">
         <v>5.2477884109981459E-3</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
+      <c r="Q21" s="1">
+        <v>3.8460564490469854E-3</v>
+      </c>
+      <c r="R21" s="3">
+        <v>4.983674966249233E-3</v>
+      </c>
+      <c r="S21" s="3">
+        <v>8.3287537048519825E-4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>9.5907765839308367E-4</v>
+      </c>
       <c r="U21" s="1">
         <v>0</v>
       </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+      <c r="V21" s="1">
+        <v>5.1932975116118394E-4</v>
+      </c>
+      <c r="W21" s="1">
+        <v>2.9481848478377188E-3</v>
+      </c>
+      <c r="X21" s="1">
+        <v>4.6377021692093554E-3</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>2.2780657263683762E-3</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>4.1410022598877072E-3</v>
+      </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
@@ -2044,18 +2434,36 @@
       <c r="P22" s="1">
         <v>3.242185805356811E-3</v>
       </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="Q22" s="1">
+        <v>4.9467145861415863E-3</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1.079850902608591E-3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>4.0144354482941804E-4</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2.0021615379477848E-2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1.7804704381892415E-3</v>
+      </c>
       <c r="V22" s="1">
         <v>0</v>
       </c>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="W22" s="1">
+        <v>1.8550477204630537E-3</v>
+      </c>
+      <c r="X22" s="1">
+        <v>4.702813271061916E-4</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>5.6037112319841744E-4</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>2.7542704323485438E-3</v>
+      </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -2114,18 +2522,36 @@
       <c r="P23" s="1">
         <v>1.8356950376555736E-3</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="Q23" s="1">
+        <v>2.4386803214559503E-3</v>
+      </c>
+      <c r="R23" s="3">
+        <v>4.397577513111771E-4</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2.1587660885128931E-3</v>
+      </c>
+      <c r="T23" s="1">
+        <v>8.972199660295698E-4</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1.7285537184930143E-3</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1.0813795576563596E-3</v>
+      </c>
       <c r="W23" s="1">
         <v>0</v>
       </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="X23" s="1">
+        <v>6.851497712677437E-4</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>2.2309499058040472E-4</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>1.3029786554987348E-4</v>
+      </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -2184,18 +2610,36 @@
       <c r="P24" s="1">
         <v>1.8852725803965163E-2</v>
       </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
+      <c r="Q24" s="1">
+        <v>1.4874395179267037E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1.739621155176144E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <v>2.2157732315277543E-3</v>
+      </c>
+      <c r="T24" s="1">
+        <v>3.7466277807590041E-3</v>
+      </c>
+      <c r="U24" s="1">
+        <v>9.6508679033219351E-3</v>
+      </c>
+      <c r="V24" s="1">
+        <v>6.5892931739377006E-4</v>
+      </c>
+      <c r="W24" s="1">
+        <v>2.5255235839794668E-3</v>
+      </c>
       <c r="X24" s="1">
         <v>0</v>
       </c>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="Y24" s="1">
+        <v>9.0332752696854254E-3</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>2.3577758756855756E-2</v>
+      </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -2254,18 +2698,36 @@
       <c r="P25" s="1">
         <v>3.2447372404751887E-2</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
+      <c r="Q25" s="1">
+        <v>4.15228910557362E-2</v>
+      </c>
+      <c r="R25" s="3">
+        <v>8.3744051931969755E-3</v>
+      </c>
+      <c r="S25" s="3">
+        <v>7.2917139116470851E-4</v>
+      </c>
+      <c r="T25" s="1">
+        <v>9.526341215974083E-3</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1.5022392593671777E-2</v>
+      </c>
+      <c r="V25" s="1">
+        <v>9.5271014434093672E-4</v>
+      </c>
+      <c r="W25" s="1">
+        <v>8.8464338788179857E-4</v>
+      </c>
+      <c r="X25" s="1">
+        <v>2.7901085868121508E-2</v>
+      </c>
       <c r="Y25" s="1">
         <v>0</v>
       </c>
-      <c r="Z25" s="1"/>
+      <c r="Z25" s="1">
+        <v>2.4385571362262663E-2</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -2324,15 +2786,33 @@
       <c r="P26" s="1">
         <v>3.2732048255144468E-2</v>
       </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="Q26" s="1">
+        <v>3.4561790798527232E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.17386021250783101</v>
+      </c>
+      <c r="S26" s="3">
+        <v>3.6131844402836426E-3</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1.0020859356016553E-2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2.7535489292014249E-2</v>
+      </c>
+      <c r="V26" s="1">
+        <v>7.2419019094303932E-3</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1.8310384959111174E-3</v>
+      </c>
+      <c r="X26" s="1">
+        <v>8.1404812855839268E-2</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>4.3881406491875344E-2</v>
+      </c>
       <c r="Z26" s="1">
         <v>0</v>
       </c>
@@ -2394,16 +2874,36 @@
       <c r="P27" s="1">
         <v>8.3297204500756995E-3</v>
       </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="Q27" s="1">
+        <v>5.9490478897379889E-3</v>
+      </c>
+      <c r="R27" s="3">
+        <v>3.8433959243276356E-3</v>
+      </c>
+      <c r="S27" s="3">
+        <v>5.6452875314475187E-4</v>
+      </c>
+      <c r="T27" s="1">
+        <v>5.1291110237585147E-3</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4.2395708937238178E-3</v>
+      </c>
+      <c r="V27" s="1">
+        <v>1.9100942221877695E-3</v>
+      </c>
+      <c r="W27" s="1">
+        <v>2.0664757130378713E-3</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1.6273815667275694E-3</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>1.5408866376586429E-2</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>2.5460998486769885E-3</v>
+      </c>
       <c r="AA27" s="1">
         <v>0</v>
       </c>
@@ -2464,16 +2964,36 @@
       <c r="P28" s="1">
         <v>6.5453784439478864E-3</v>
       </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+      <c r="Q28" s="1">
+        <v>6.9219226205060897E-3</v>
+      </c>
+      <c r="R28" s="3">
+        <v>3.7023143165427238E-3</v>
+      </c>
+      <c r="S28" s="3">
+        <v>1.2924267823204766E-2</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3.2119746758515623E-2</v>
+      </c>
+      <c r="U28" s="1">
+        <v>6.4671863161694272E-3</v>
+      </c>
+      <c r="V28" s="1">
+        <v>2.1625181126589007E-2</v>
+      </c>
+      <c r="W28" s="1">
+        <v>3.9557424376037667E-2</v>
+      </c>
+      <c r="X28" s="1">
+        <v>3.8345297265459607E-3</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>2.0030284361200065E-2</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>3.3260823892894307E-3</v>
+      </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1">
         <v>0</v>
@@ -2534,16 +3054,36 @@
       <c r="P29" s="1">
         <v>4.9630065773400948E-3</v>
       </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+      <c r="Q29" s="1">
+        <v>4.2087340644955742E-3</v>
+      </c>
+      <c r="R29" s="3">
+        <v>4.2071312515593708E-3</v>
+      </c>
+      <c r="S29" s="3">
+        <v>2.1960126334250752E-3</v>
+      </c>
+      <c r="T29" s="1">
+        <v>2.4511128945588687E-2</v>
+      </c>
+      <c r="U29" s="1">
+        <v>7.1752785013885776E-3</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.12180582224292905</v>
+      </c>
+      <c r="W29" s="1">
+        <v>7.1015869298343345E-3</v>
+      </c>
+      <c r="X29" s="1">
+        <v>2.5000052392219778E-3</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>5.7782197433325373E-3</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>3.289569418953424E-3</v>
+      </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1">
@@ -2604,16 +3144,36 @@
       <c r="P30" s="1">
         <v>1.014088973278897E-2</v>
       </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="Q30" s="1">
+        <v>7.3618235067595484E-3</v>
+      </c>
+      <c r="R30" s="3">
+        <v>7.584022513452437E-3</v>
+      </c>
+      <c r="S30" s="3">
+        <v>4.0546369562375947E-3</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1.5439783719868656E-2</v>
+      </c>
+      <c r="U30" s="1">
+        <v>6.3307101041188314E-3</v>
+      </c>
+      <c r="V30" s="1">
+        <v>9.3565672169561454E-3</v>
+      </c>
+      <c r="W30" s="1">
+        <v>4.5032160942635527E-2</v>
+      </c>
+      <c r="X30" s="1">
+        <v>4.9848125937911663E-3</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>1.0820751227966555E-2</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>1.1334760224762331E-2</v>
+      </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -2674,16 +3234,36 @@
       <c r="P31" s="1">
         <v>4.3206797239161411E-2</v>
       </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+      <c r="Q31" s="1">
+        <v>1.5922382720298101E-2</v>
+      </c>
+      <c r="R31" s="3">
+        <v>5.5482937249136714E-2</v>
+      </c>
+      <c r="S31" s="3">
+        <v>4.1499789070564E-3</v>
+      </c>
+      <c r="T31" s="1">
+        <v>6.2782176694821269E-3</v>
+      </c>
+      <c r="U31" s="1">
+        <v>2.1929174542183238E-2</v>
+      </c>
+      <c r="V31" s="1">
+        <v>3.4075935779723514E-3</v>
+      </c>
+      <c r="W31" s="1">
+        <v>6.3968783540661782E-3</v>
+      </c>
+      <c r="X31" s="1">
+        <v>4.4281068191044062E-2</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>2.1159053420850383E-2</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>5.1242806874121326E-2</v>
+      </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
@@ -2744,16 +3324,36 @@
       <c r="P32" s="1">
         <v>2.5816626073592681E-3</v>
       </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+      <c r="Q32" s="1">
+        <v>6.3630047056729066E-3</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3.3713798252813032E-3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>6.9931343076440084E-4</v>
+      </c>
+      <c r="T32" s="1">
+        <v>9.3810553100795273E-3</v>
+      </c>
+      <c r="U32" s="1">
+        <v>2.6980364680372114E-3</v>
+      </c>
+      <c r="V32" s="1">
+        <v>6.1326122344765423E-3</v>
+      </c>
+      <c r="W32" s="1">
+        <v>2.6857497345288326E-3</v>
+      </c>
+      <c r="X32" s="1">
+        <v>9.7621348859255799E-4</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1.756724933724645E-2</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>1.8888255110283384E-3</v>
+      </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -2814,16 +3414,36 @@
       <c r="P33" s="1">
         <v>2.601710750067111E-2</v>
       </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="Q33" s="1">
+        <v>2.1459957314736232E-2</v>
+      </c>
+      <c r="R33" s="3">
+        <v>2.4291673241684721E-2</v>
+      </c>
+      <c r="S33" s="3">
+        <v>6.842370240977406E-3</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.1046713251601912</v>
+      </c>
+      <c r="U33" s="1">
+        <v>4.8696258205201709E-2</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.20071379660665245</v>
+      </c>
+      <c r="W33" s="1">
+        <v>3.3534032203314176E-2</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1.9876581585738927E-2</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>2.9627525284985218E-2</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>2.7882167409141692E-2</v>
+      </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
@@ -2884,16 +3504,36 @@
       <c r="P34" s="1">
         <v>0.25064616925502026</v>
       </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="Q34" s="1">
+        <v>0.19845209525473054</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.16765919272107077</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0.74425039073064991</v>
+      </c>
+      <c r="T34" s="1">
+        <v>7.5072138271237959E-2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.1462030680463112</v>
+      </c>
+      <c r="V34" s="1">
+        <v>7.4578973066885268E-2</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0.2762998372899933</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0.22645549341563692</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0.16144429642477737</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0.16250726277544264</v>
+      </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
@@ -2911,6 +3551,13 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">

--- a/code/data/trade balance.xlsx
+++ b/code/data/trade balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evehanoune/Documents/GitHub/Advanced-Time-Series-Analysis-Article-Replication/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD88196-50AA-244B-8D47-9C08EF3D1BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46486DF4-4CB5-4447-A17C-9FE574DA21C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -704,9 +704,15 @@
       <c r="Z2" s="1">
         <v>6.8737944243158812E-4</v>
       </c>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
+      <c r="AA2" s="1">
+        <v>8.3643919589055909E-3</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>9.447029057699426E-3</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1.8303064449741023E-3</v>
+      </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -792,9 +798,15 @@
       <c r="Z3" s="1">
         <v>2.9659147186796079E-2</v>
       </c>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="AA3" s="1">
+        <v>2.2899720952739958E-2</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>4.5412676395574451E-3</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1.0054343238059128E-2</v>
+      </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -880,9 +892,15 @@
       <c r="Z4" s="1">
         <v>2.1717677521387469E-3</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+      <c r="AA4" s="1">
+        <v>7.1239079865310726E-3</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1.2016587585594674E-2</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1.4433900124085937E-2</v>
+      </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -968,9 +986,15 @@
       <c r="Z5" s="1">
         <v>6.6271994604233534E-3</v>
       </c>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
+      <c r="AA5" s="1">
+        <v>2.8046022107661495E-2</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>3.1443734591084183E-2</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3.4255047654168425E-2</v>
+      </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -1056,9 +1080,15 @@
       <c r="Z6" s="1">
         <v>4.474326471536871E-3</v>
       </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
+      <c r="AA6" s="1">
+        <v>1.71721095532168E-2</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1.2249060746794634E-2</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>7.5741266805831563E-3</v>
+      </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -1144,9 +1174,15 @@
       <c r="Z7" s="1">
         <v>5.1998957952845305E-3</v>
       </c>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+      <c r="AA7" s="1">
+        <v>1.0003687724642477E-2</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>5.7856478932871054E-3</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>9.7711706456780137E-3</v>
+      </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -1232,9 +1268,15 @@
       <c r="Z8" s="1">
         <v>7.1994815321391886E-4</v>
       </c>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
+      <c r="AA8" s="1">
+        <v>1.6259661223414689E-3</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>5.1500545408077877E-3</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2.7104264366551419E-3</v>
+      </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -1320,9 +1362,15 @@
       <c r="Z9" s="1">
         <v>0.10594948146025356</v>
       </c>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
+      <c r="AA9" s="1">
+        <v>0.13147109415558422</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>3.1718384089372796E-2</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>3.085518487560136E-2</v>
+      </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
@@ -1408,9 +1456,15 @@
       <c r="Z10" s="1">
         <v>2.0312294701645152E-3</v>
       </c>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
+      <c r="AA10" s="1">
+        <v>6.1410793124579083E-3</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>7.1822769649279167E-3</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>7.3091304475542129E-2</v>
+      </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
@@ -1496,9 +1550,15 @@
       <c r="Z11" s="1">
         <v>2.4582018055768082E-2</v>
       </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+      <c r="AA11" s="1">
+        <v>3.4866000116765689E-2</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0.22464108054875639</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>6.6537330167814907E-2</v>
+      </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -1584,9 +1644,15 @@
       <c r="Z12" s="1">
         <v>3.5838591769152356E-2</v>
       </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
+      <c r="AA12" s="1">
+        <v>0.13560550144762862</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0.18579824543698739</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0.18699107694579722</v>
+      </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -1672,9 +1738,15 @@
       <c r="Z13" s="1">
         <v>2.703413688021758E-2</v>
       </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+      <c r="AA13" s="1">
+        <v>4.1632028553882587E-2</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>6.1632740023721648E-3</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>6.8388053108818661E-3</v>
+      </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -1760,9 +1832,15 @@
       <c r="Z14" s="1">
         <v>5.6010399990184229E-2</v>
       </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
+      <c r="AA14" s="1">
+        <v>8.8033951803599183E-3</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>5.8159017413301596E-3</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>3.5562256822058934E-3</v>
+      </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -1848,9 +1926,15 @@
       <c r="Z15" s="1">
         <v>9.8374811859880881E-3</v>
       </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="AA15" s="1">
+        <v>3.4640022160126578E-2</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0.11689531009256716</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>4.3753622045431283E-2</v>
+      </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -1936,9 +2020,15 @@
       <c r="Z16" s="1">
         <v>0.11370890916449587</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="AA16" s="1">
+        <v>8.4311052186437571E-2</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>2.3115862178165983E-2</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>3.1259757862839146E-2</v>
+      </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -2024,9 +2114,15 @@
       <c r="Z17" s="1">
         <v>5.1755376262563088E-2</v>
       </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="AA17" s="1">
+        <v>2.5419974194961489E-2</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>9.1744320818030814E-3</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>9.1198756304521518E-3</v>
+      </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
@@ -2112,9 +2208,15 @@
       <c r="Z18" s="1">
         <v>0.17703270399711685</v>
       </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="AA18" s="1">
+        <v>1.343118673698371E-2</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>2.8077633641595957E-3</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>5.0073074738250919E-3</v>
+      </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -2200,9 +2302,15 @@
       <c r="Z19" s="1">
         <v>4.7700413854310803E-3</v>
       </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="AA19" s="1">
+        <v>5.5323755330172067E-3</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1.5854334606967287E-2</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>4.116055530333681E-3</v>
+      </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -2288,9 +2396,15 @@
       <c r="Z20" s="1">
         <v>2.290349098851889E-2</v>
       </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="AA20" s="1">
+        <v>3.6623411495595504E-2</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>5.4742379148907873E-2</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>7.3158868543954939E-2</v>
+      </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
@@ -2376,9 +2490,15 @@
       <c r="Z21" s="1">
         <v>4.1410022598877072E-3</v>
       </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="AA21" s="1">
+        <v>2.2296658222749964E-3</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>7.7343611641947721E-4</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1.281347472729821E-3</v>
+      </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
@@ -2464,9 +2584,15 @@
       <c r="Z22" s="1">
         <v>2.7542704323485438E-3</v>
       </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="AA22" s="1">
+        <v>2.3021741288535183E-3</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>7.3949603699415781E-3</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.10818507588875198</v>
+      </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -2552,9 +2678,15 @@
       <c r="Z23" s="1">
         <v>1.3029786554987348E-4</v>
       </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
+      <c r="AA23" s="1">
+        <v>5.9348205887976022E-4</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>2.5396996756631793E-3</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>9.3426067136992083E-4</v>
+      </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
@@ -2640,9 +2772,15 @@
       <c r="Z24" s="1">
         <v>2.3577758756855756E-2</v>
       </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="AA24" s="1">
+        <v>1.9449343581506085E-3</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1.0562314199397524E-3</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1.3448612351801231E-3</v>
+      </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
@@ -2728,9 +2866,15 @@
       <c r="Z25" s="1">
         <v>2.4385571362262663E-2</v>
       </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
+      <c r="AA25" s="1">
+        <v>3.9972251013956718E-2</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>1.2004008673564371E-2</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>6.2124800870951074E-3</v>
+      </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
@@ -2816,9 +2960,15 @@
       <c r="Z26" s="1">
         <v>0</v>
       </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
+      <c r="AA26" s="1">
+        <v>1.220040187059699E-2</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>3.2543097644452332E-3</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>5.6102084496247023E-3</v>
+      </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -2907,8 +3057,12 @@
       <c r="AA27" s="1">
         <v>0</v>
       </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
+      <c r="AB27" s="3">
+        <v>5.3201687110400265E-3</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>4.5679666048606031E-3</v>
+      </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -2994,11 +3148,15 @@
       <c r="Z28" s="1">
         <v>3.3260823892894307E-3</v>
       </c>
-      <c r="AA28" s="1"/>
+      <c r="AA28" s="1">
+        <v>2.4878600290437248E-2</v>
+      </c>
       <c r="AB28" s="1">
         <v>0</v>
       </c>
-      <c r="AC28" s="1"/>
+      <c r="AC28" s="1">
+        <v>2.5650942274597674E-2</v>
+      </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
@@ -3084,8 +3242,12 @@
       <c r="Z29" s="1">
         <v>3.289569418953424E-3</v>
       </c>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
+      <c r="AA29" s="1">
+        <v>1.2175517631683052E-2</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1.5188821009647933E-2</v>
+      </c>
       <c r="AC29" s="1">
         <v>0</v>
       </c>
@@ -3174,9 +3336,15 @@
       <c r="Z30" s="1">
         <v>1.1334760224762331E-2</v>
       </c>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
+      <c r="AA30" s="1">
+        <v>2.180869730230818E-2</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>1.8117342095168892E-2</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>1.7836767245614327E-2</v>
+      </c>
       <c r="AD30" s="1">
         <v>0</v>
       </c>
@@ -3264,9 +3432,15 @@
       <c r="Z31" s="1">
         <v>5.1242806874121326E-2</v>
       </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="AA31" s="1">
+        <v>1.8796692702886694E-2</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>4.1155780769098179E-3</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>5.114490677113003E-3</v>
+      </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1">
         <v>0</v>
@@ -3354,9 +3528,15 @@
       <c r="Z32" s="1">
         <v>1.8888255110283384E-3</v>
       </c>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
+      <c r="AA32" s="1">
+        <v>7.1202805070013867E-3</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>1.3505961914287242E-2</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>9.0851465896320052E-3</v>
+      </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1">
@@ -3444,9 +3624,15 @@
       <c r="Z33" s="1">
         <v>2.7882167409141692E-2</v>
       </c>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
+      <c r="AA33" s="1">
+        <v>8.223651997910908E-2</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>9.3833091147169409E-2</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.10696803225267466</v>
+      </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
@@ -3534,9 +3720,15 @@
       <c r="Z34" s="1">
         <v>0.16250726277544264</v>
       </c>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="AA34" s="1">
+        <v>0.1200278548540219</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>5.8353764714660021E-2</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>9.2293684781872554E-2</v>
+      </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
@@ -3558,6 +3750,8 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AC35" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">

--- a/code/data/trade balance.xlsx
+++ b/code/data/trade balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evehanoune/Documents/GitHub/Advanced-Time-Series-Analysis-Article-Replication/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46486DF4-4CB5-4447-A17C-9FE574DA21C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E037E1A-105D-854C-B558-EFF0C05EBB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+      <selection activeCell="AF41" sqref="AF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,8 +713,12 @@
       <c r="AC2" s="1">
         <v>1.8303064449741023E-3</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
+      <c r="AD2" s="1">
+        <v>1.9354367560504065E-3</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>3.1000758312527163E-3</v>
+      </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -807,8 +811,12 @@
       <c r="AC3" s="1">
         <v>1.0054343238059128E-2</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
+      <c r="AD3" s="1">
+        <v>6.1233879688339108E-3</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>3.2471832584853387E-2</v>
+      </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -901,8 +909,12 @@
       <c r="AC4" s="1">
         <v>1.4433900124085937E-2</v>
       </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="AD4" s="1">
+        <v>4.2441631708285375E-2</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>2.4714347005253424E-3</v>
+      </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -995,8 +1007,12 @@
       <c r="AC5" s="1">
         <v>3.4255047654168425E-2</v>
       </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="AD5" s="1">
+        <v>1.8243197570002392E-2</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>8.7696227708362415E-3</v>
+      </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -1089,8 +1105,12 @@
       <c r="AC6" s="1">
         <v>7.5741266805831563E-3</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="AD6" s="1">
+        <v>7.5881542143144244E-3</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>7.7611838241292168E-3</v>
+      </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -1183,8 +1203,12 @@
       <c r="AC7" s="1">
         <v>9.7711706456780137E-3</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="AD7" s="1">
+        <v>8.8271125890703288E-3</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1.05126923897449E-2</v>
+      </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -1277,8 +1301,12 @@
       <c r="AC8" s="1">
         <v>2.7104264366551419E-3</v>
       </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="AD8" s="1">
+        <v>1.095570780299818E-3</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>1.8697331280072289E-3</v>
+      </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -1371,8 +1399,12 @@
       <c r="AC9" s="1">
         <v>3.085518487560136E-2</v>
       </c>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="AD9" s="1">
+        <v>2.1754048156230124E-2</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>8.5699907096257244E-2</v>
+      </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -1465,8 +1497,12 @@
       <c r="AC10" s="1">
         <v>7.3091304475542129E-2</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="AD10" s="1">
+        <v>6.8498553322547786E-3</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>3.7184043976735181E-3</v>
+      </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -1559,8 +1595,12 @@
       <c r="AC11" s="1">
         <v>6.6537330167814907E-2</v>
       </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+      <c r="AD11" s="1">
+        <v>0.1121749783076207</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1.8044686669732135E-2</v>
+      </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -1653,8 +1693,12 @@
       <c r="AC12" s="1">
         <v>0.18699107694579722</v>
       </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="AD12" s="1">
+        <v>0.30718735138816572</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>3.9876082522212114E-2</v>
+      </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -1747,8 +1791,12 @@
       <c r="AC13" s="1">
         <v>6.8388053108818661E-3</v>
       </c>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
+      <c r="AD13" s="1">
+        <v>9.4284878115167281E-3</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1.4495139543193468E-2</v>
+      </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -1841,8 +1889,12 @@
       <c r="AC14" s="1">
         <v>3.5562256822058934E-3</v>
       </c>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="AD14" s="1">
+        <v>2.2080320308530744E-3</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>2.9110608750535026E-2</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -1935,8 +1987,12 @@
       <c r="AC15" s="1">
         <v>4.3753622045431283E-2</v>
       </c>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AD15" s="1">
+        <v>0.10708842325346217</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1.4760861193481765E-2</v>
+      </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -2029,8 +2085,12 @@
       <c r="AC16" s="1">
         <v>3.1259757862839146E-2</v>
       </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="AD16" s="1">
+        <v>3.7073831592947581E-2</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.24259341535804665</v>
+      </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -2123,8 +2183,12 @@
       <c r="AC17" s="1">
         <v>9.1198756304521518E-3</v>
       </c>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="AD17" s="1">
+        <v>7.5488052603744724E-3</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>3.5776918991793832E-2</v>
+      </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -2217,8 +2281,12 @@
       <c r="AC18" s="1">
         <v>5.0073074738250919E-3</v>
       </c>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="AD18" s="1">
+        <v>3.2179366400960159E-3</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>6.1014816074694833E-2</v>
+      </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -2311,8 +2379,12 @@
       <c r="AC19" s="1">
         <v>4.116055530333681E-3</v>
       </c>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
+      <c r="AD19" s="1">
+        <v>4.51245986079342E-3</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>4.1914374027766542E-3</v>
+      </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -2405,8 +2477,12 @@
       <c r="AC20" s="1">
         <v>7.3158868543954939E-2</v>
       </c>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="AD20" s="1">
+        <v>4.3859809478915018E-2</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>2.313748314356329E-2</v>
+      </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -2499,8 +2575,12 @@
       <c r="AC21" s="1">
         <v>1.281347472729821E-3</v>
       </c>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
+      <c r="AD21" s="1">
+        <v>1.0461459466661325E-3</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>3.7547470719615293E-3</v>
+      </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
@@ -2593,8 +2673,12 @@
       <c r="AC22" s="1">
         <v>0.10818507588875198</v>
       </c>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
+      <c r="AD22" s="1">
+        <v>4.0585837409018799E-3</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>1.8581301659013184E-3</v>
+      </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
@@ -2687,8 +2771,12 @@
       <c r="AC23" s="1">
         <v>9.3426067136992083E-4</v>
       </c>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
+      <c r="AD23" s="1">
+        <v>9.5752423353167313E-4</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>7.9905156431620352E-4</v>
+      </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
@@ -2781,8 +2869,12 @@
       <c r="AC24" s="1">
         <v>1.3448612351801231E-3</v>
       </c>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
+      <c r="AD24" s="1">
+        <v>1.4321632337137027E-3</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>1.7530600414012242E-2</v>
+      </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -2875,8 +2967,12 @@
       <c r="AC25" s="1">
         <v>6.2124800870951074E-3</v>
       </c>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
+      <c r="AD25" s="1">
+        <v>6.7174367787961459E-3</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>1.9452330245341438E-2</v>
+      </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -2969,8 +3065,12 @@
       <c r="AC26" s="1">
         <v>5.6102084496247023E-3</v>
       </c>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
+      <c r="AD26" s="1">
+        <v>8.9605357828393892E-3</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>8.3181327270786545E-2</v>
+      </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
@@ -3063,8 +3163,12 @@
       <c r="AC27" s="1">
         <v>4.5679666048606031E-3</v>
       </c>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
+      <c r="AD27" s="1">
+        <v>5.5627179112209824E-3</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>4.8657222417776225E-3</v>
+      </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
@@ -3157,8 +3261,12 @@
       <c r="AC28" s="1">
         <v>2.5650942274597674E-2</v>
       </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
+      <c r="AD28" s="1">
+        <v>2.8604099202662051E-2</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>6.7703527403959905E-3</v>
+      </c>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -3251,8 +3359,12 @@
       <c r="AC29" s="1">
         <v>0</v>
       </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
+      <c r="AD29" s="1">
+        <v>1.3934135419463227E-2</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>5.8077452167076167E-3</v>
+      </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -3348,7 +3460,9 @@
       <c r="AD30" s="1">
         <v>0</v>
       </c>
-      <c r="AE30" s="1"/>
+      <c r="AE30" s="1">
+        <v>1.7569499433503565E-2</v>
+      </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
@@ -3441,7 +3555,9 @@
       <c r="AC31" s="1">
         <v>5.114490677113003E-3</v>
       </c>
-      <c r="AD31" s="1"/>
+      <c r="AD31" s="1">
+        <v>7.3878241272990362E-3</v>
+      </c>
       <c r="AE31" s="1">
         <v>0</v>
       </c>
@@ -3537,8 +3653,12 @@
       <c r="AC32" s="1">
         <v>9.0851465896320052E-3</v>
       </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
+      <c r="AD32" s="1">
+        <v>8.4448689749343706E-3</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>2.7373007033987193E-3</v>
+      </c>
       <c r="AF32" s="1">
         <v>0</v>
       </c>
@@ -3633,8 +3753,12 @@
       <c r="AC33" s="1">
         <v>0.10696803225267466</v>
       </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
+      <c r="AD33" s="1">
+        <v>6.4665897540323342E-2</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>2.8286770635329098E-2</v>
+      </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1">
         <v>0</v>
@@ -3729,8 +3853,12 @@
       <c r="AC34" s="1">
         <v>9.2293684781872554E-2</v>
       </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
+      <c r="AD34" s="1">
+        <v>9.9069556407561557E-2</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.16801008592325853</v>
+      </c>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1">
@@ -3752,6 +3880,8 @@
       <c r="Y35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">

--- a/code/data/trade balance.xlsx
+++ b/code/data/trade balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evehanoune/Documents/GitHub/Advanced-Time-Series-Analysis-Article-Replication/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E037E1A-105D-854C-B558-EFF0C05EBB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81A98D1-EEDE-D742-A7E3-EFA2B386C333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="AF41" sqref="AF41"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -719,9 +719,15 @@
       <c r="AE2" s="1">
         <v>3.1000758312527163E-3</v>
       </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
+      <c r="AF2" s="1">
+        <v>3.0833313948969514E-3</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1.7248301302030843E-3</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>4.8262350916768301E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -817,9 +823,15 @@
       <c r="AE3" s="1">
         <v>3.2471832584853387E-2</v>
       </c>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+      <c r="AF3" s="1">
+        <v>5.9549617944851443E-3</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1.4209280740454661E-2</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>1.2541890810050998E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -915,9 +927,15 @@
       <c r="AE4" s="1">
         <v>2.4714347005253424E-3</v>
       </c>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="AF4" s="1">
+        <v>1.5545856021927125E-2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>9.0042889414470844E-3</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>3.8500334143023677E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1013,9 +1031,15 @@
       <c r="AE5" s="1">
         <v>8.7696227708362415E-3</v>
       </c>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
+      <c r="AF5" s="1">
+        <v>2.32179284339189E-2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>4.0005238976801354E-2</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1.1240464533658349E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1111,9 +1135,15 @@
       <c r="AE6" s="1">
         <v>7.7611838241292168E-3</v>
       </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
+      <c r="AF6" s="1">
+        <v>7.9050327627523606E-3</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>7.6159678346431163E-3</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1.9507584975292827E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1209,9 +1239,15 @@
       <c r="AE7" s="1">
         <v>1.05126923897449E-2</v>
       </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
+      <c r="AF7" s="1">
+        <v>7.9476252659464678E-3</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>2.1550022927415501E-2</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.22951096073129926</v>
+      </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1307,9 +1343,15 @@
       <c r="AE8" s="1">
         <v>1.8697331280072289E-3</v>
       </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
+      <c r="AF8" s="1">
+        <v>1.7555859245762522E-3</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>1.9187136472322561E-3</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>5.7188303797805319E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1405,9 +1447,15 @@
       <c r="AE9" s="1">
         <v>8.5699907096257244E-2</v>
       </c>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
+      <c r="AF9" s="1">
+        <v>4.9187578293714652E-2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>3.6180957110939202E-2</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.10292773589102126</v>
+      </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1503,9 +1551,15 @@
       <c r="AE10" s="1">
         <v>3.7184043976735181E-3</v>
       </c>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
+      <c r="AF10" s="1">
+        <v>8.2731604873866552E-3</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.2108547163296663E-2</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>3.0649199369078765E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1601,9 +1655,15 @@
       <c r="AE11" s="1">
         <v>1.8044686669732135E-2</v>
       </c>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
+      <c r="AF11" s="1">
+        <v>8.4645157535504348E-2</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.10848059017440324</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>2.9175788429739169E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1699,9 +1759,15 @@
       <c r="AE12" s="1">
         <v>3.9876082522212114E-2</v>
       </c>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
+      <c r="AF12" s="1">
+        <v>0.21987028758306187</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.16136771338750275</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>5.5150150210792948E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1797,9 +1863,15 @@
       <c r="AE13" s="1">
         <v>1.4495139543193468E-2</v>
       </c>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
+      <c r="AF13" s="1">
+        <v>1.2478794990124721E-2</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>1.3606500458228617E-2</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1.183859324748977E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1895,9 +1967,15 @@
       <c r="AE14" s="1">
         <v>2.9110608750535026E-2</v>
       </c>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
+      <c r="AF14" s="1">
+        <v>5.897713549785067E-3</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>4.4820450209376089E-3</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>8.6315634318236828E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -1993,9 +2071,15 @@
       <c r="AE15" s="1">
         <v>1.4760861193481765E-2</v>
       </c>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
+      <c r="AF15" s="1">
+        <v>0.10828604317107494</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>5.6356040440501624E-2</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>2.1322091332508359E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -2091,9 +2175,15 @@
       <c r="AE16" s="1">
         <v>0.24259341535804665</v>
       </c>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
+      <c r="AF16" s="1">
+        <v>3.2370672927079028E-2</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>4.0398532616781939E-2</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0.11922024095161937</v>
+      </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -2189,9 +2279,15 @@
       <c r="AE17" s="1">
         <v>3.5776918991793832E-2</v>
       </c>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
+      <c r="AF17" s="1">
+        <v>2.1714931394862885E-2</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1.1686902461121329E-2</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>3.6375745319549048E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -2287,9 +2383,15 @@
       <c r="AE18" s="1">
         <v>6.1014816074694833E-2</v>
       </c>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
+      <c r="AF18" s="1">
+        <v>7.0740059004395037E-3</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>9.3143979102913756E-3</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>1.9047469460191004E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -2385,9 +2487,15 @@
       <c r="AE19" s="1">
         <v>4.1914374027766542E-3</v>
       </c>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
+      <c r="AF19" s="1">
+        <v>2.3698672713956194E-3</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>3.742457720339805E-3</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.12839817068880255</v>
+      </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2483,9 +2591,15 @@
       <c r="AE20" s="1">
         <v>2.313748314356329E-2</v>
       </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
+      <c r="AF20" s="1">
+        <v>4.0372565239368295E-2</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>9.1180258910670997E-2</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>2.0488772968707641E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2581,9 +2695,15 @@
       <c r="AE21" s="1">
         <v>3.7547470719615293E-3</v>
       </c>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
+      <c r="AF21" s="1">
+        <v>1.0278346418311005E-3</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>3.1286348808494307E-3</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>2.6429060512595834E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -2679,9 +2799,15 @@
       <c r="AE22" s="1">
         <v>1.8581301659013184E-3</v>
       </c>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
+      <c r="AF22" s="1">
+        <v>5.6406214110867161E-3</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>3.3323624752285112E-2</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>4.0685749714872658E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -2777,9 +2903,15 @@
       <c r="AE23" s="1">
         <v>7.9905156431620352E-4</v>
       </c>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
+      <c r="AF23" s="1">
+        <v>6.3570523179178994E-4</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>6.5929295840811309E-4</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>3.1475256175198915E-3</v>
+      </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -2875,9 +3007,15 @@
       <c r="AE24" s="1">
         <v>1.7530600414012242E-2</v>
       </c>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
+      <c r="AF24" s="1">
+        <v>1.0161154700180704E-3</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>3.2981922844797368E-3</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>9.5271467701965405E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -2973,9 +3111,15 @@
       <c r="AE25" s="1">
         <v>1.9452330245341438E-2</v>
       </c>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
+      <c r="AF25" s="1">
+        <v>3.5595352222299273E-2</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>9.8861417565645777E-3</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>1.655296913829964E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -3071,9 +3215,15 @@
       <c r="AE26" s="1">
         <v>8.3181327270786545E-2</v>
       </c>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
+      <c r="AF26" s="1">
+        <v>4.9894447113553869E-3</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>1.426751152643419E-2</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>2.195986799700084E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -3169,9 +3319,15 @@
       <c r="AE27" s="1">
         <v>4.8657222417776225E-3</v>
       </c>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
+      <c r="AF27" s="1">
+        <v>8.7561396184120399E-3</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>1.4312114351778388E-2</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>4.8592696353972386E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -3267,9 +3423,15 @@
       <c r="AE28" s="1">
         <v>6.7703527403959905E-3</v>
       </c>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
+      <c r="AF28" s="1">
+        <v>4.0347943050992603E-2</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>4.387753228175751E-2</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>8.0356016333339546E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3365,9 +3527,15 @@
       <c r="AE29" s="1">
         <v>5.8077452167076167E-3</v>
       </c>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
+      <c r="AF29" s="1">
+        <v>1.762833210005069E-2</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>2.8185001004747058E-2</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>7.8036070054381601E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -3463,9 +3631,15 @@
       <c r="AE30" s="1">
         <v>1.7569499433503565E-2</v>
       </c>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
+      <c r="AF30" s="1">
+        <v>3.2374600928033855E-2</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>3.0688257586186121E-2</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>1.321255985234393E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -3561,9 +3735,15 @@
       <c r="AE31" s="1">
         <v>0</v>
       </c>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
+      <c r="AF31" s="1">
+        <v>4.9030160853058748E-3</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>7.1643839809136323E-3</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>1.3597607337211054E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -3662,8 +3842,12 @@
       <c r="AF32" s="1">
         <v>0</v>
       </c>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
+      <c r="AG32" s="1">
+        <v>1.1975020145886316E-2</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>4.7314291853158682E-3</v>
+      </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -3759,11 +3943,15 @@
       <c r="AE33" s="1">
         <v>2.8286770635329098E-2</v>
       </c>
-      <c r="AF33" s="1"/>
+      <c r="AF33" s="1">
+        <v>8.0550537558230953E-2</v>
+      </c>
       <c r="AG33" s="1">
         <v>0</v>
       </c>
-      <c r="AH33" s="1"/>
+      <c r="AH33" s="1">
+        <v>4.7023692999982304E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -3859,8 +4047,12 @@
       <c r="AE34" s="1">
         <v>0.16801008592325853</v>
       </c>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
+      <c r="AF34" s="1">
+        <v>0.10858325702829091</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0.15430100591649751</v>
+      </c>
       <c r="AH34" s="1">
         <v>0</v>
       </c>
@@ -3882,6 +4074,9 @@
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
